--- a/docx/sizings.xlsx
+++ b/docx/sizings.xlsx
@@ -1,39 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\c++\TCNV3\docx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\c++\TCNV4\docx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB2BBE03-8BDD-473C-A595-5B87E9997871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDEF6C29-9268-4AB8-BEC5-DC0360F15255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-135" windowWidth="29040" windowHeight="15720" xr2:uid="{CBF60A62-4AF1-487D-9D0D-182ED621CD00}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sizing" sheetId="1" r:id="rId1"/>
+    <sheet name="Aggregation" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="connectioncount">Sheet1!$C$16</definedName>
-    <definedName name="connectionrtio">Sheet1!$C$15</definedName>
-    <definedName name="IT">Sheet1!$C$3</definedName>
-    <definedName name="L1d">Sheet1!$C$8</definedName>
-    <definedName name="L1w">Sheet1!$C$7</definedName>
-    <definedName name="layerv1">Sheet1!$C$6</definedName>
-    <definedName name="layerv2">Sheet1!$C$5</definedName>
-    <definedName name="layerv4">Sheet1!$C$4</definedName>
-    <definedName name="Lwd">Sheet1!$C$10</definedName>
-    <definedName name="Lxd">Sheet1!$C$10</definedName>
-    <definedName name="Lxw">Sheet1!$C$9</definedName>
-    <definedName name="neuroncount">Sheet1!$C$12</definedName>
-    <definedName name="neuronsignalratio">Sheet1!$C$13</definedName>
-    <definedName name="signalcount">Sheet1!$C$14</definedName>
-    <definedName name="sixpack">Sheet1!$C$11</definedName>
-    <definedName name="soxpack">Sheet1!$C$11</definedName>
+    <definedName name="connectioncount">Sizing!$C$28</definedName>
+    <definedName name="connectionrtio">Sizing!$C$27</definedName>
+    <definedName name="IT">Sizing!$C$3</definedName>
+    <definedName name="L1d">Sizing!$C$9</definedName>
+    <definedName name="L1w">Sizing!$C$8</definedName>
+    <definedName name="layerv1">Sizing!$C$6</definedName>
+    <definedName name="layerv2">Sizing!$C$5</definedName>
+    <definedName name="layerv4">Sizing!$C$4</definedName>
+    <definedName name="Lwd">Sizing!$C$11</definedName>
+    <definedName name="Lxd">Sizing!$C$11</definedName>
+    <definedName name="Lxw">Sizing!$C$10</definedName>
+    <definedName name="neuroncount">Sizing!$C$24</definedName>
+    <definedName name="neuronsignalratio">Sizing!$C$25</definedName>
+    <definedName name="signalcount">Sizing!$C$26</definedName>
+    <definedName name="sixpack">Sizing!$C$21</definedName>
+    <definedName name="SixPackNeuronCount">Sizing!$D$21</definedName>
+    <definedName name="soxpack">Sizing!$C$21</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,30 +55,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>TCN Sizing</t>
   </si>
@@ -96,15 +76,6 @@
     <t>L1_depth</t>
   </si>
   <si>
-    <t>Lx_width</t>
-  </si>
-  <si>
-    <t>Lx_depth</t>
-  </si>
-  <si>
-    <t>six_pack</t>
-  </si>
-  <si>
     <t>neuron_count</t>
   </si>
   <si>
@@ -117,17 +88,75 @@
     <t>connectioncount</t>
   </si>
   <si>
-    <t>L1_width</t>
-  </si>
-  <si>
     <t>neuronsignalration</t>
+  </si>
+  <si>
+    <t>Unit size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory </t>
+  </si>
+  <si>
+    <t>Bytes</t>
+  </si>
+  <si>
+    <t>amplitude</t>
+  </si>
+  <si>
+    <t>signal</t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t>L1_area</t>
+  </si>
+  <si>
+    <t>L2_area</t>
+  </si>
+  <si>
+    <t>L2_depth</t>
+  </si>
+  <si>
+    <t>L3_area</t>
+  </si>
+  <si>
+    <t>L3_depth</t>
+  </si>
+  <si>
+    <t>L4_area</t>
+  </si>
+  <si>
+    <t>L4_depth</t>
+  </si>
+  <si>
+    <t>L5_area</t>
+  </si>
+  <si>
+    <t>L5_depth</t>
+  </si>
+  <si>
+    <t>L6_area</t>
+  </si>
+  <si>
+    <t>L6_depth</t>
+  </si>
+  <si>
+    <t>Neuron count</t>
+  </si>
+  <si>
+    <t>six_pack depth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +166,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -160,14 +196,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -500,140 +540,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C215058-7278-42BA-8F0D-12D4C5F6D6DC}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <f>IT*SixPackNeuronCount</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
-        <f>IT*IT</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="2">
+        <f>IT*5</f>
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <f>layerv4*SixPackNeuronCount</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
-        <f>layerv4*IT</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <f>layerv4*layerv4</f>
+        <v>25</v>
+      </c>
+      <c r="D5" s="2">
+        <f>layerv2*SixPackNeuronCount</f>
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
-        <f>layerv2*IT</f>
-        <v>625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="C6" s="2">
+        <f>layerv2*layerv4</f>
+        <v>125</v>
+      </c>
+      <c r="D6" s="2">
+        <f>layerv1*SixPackNeuronCount</f>
+        <v>12500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="2">
+        <f>SUM(D3:D6)</f>
+        <v>15600000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <f>L1w*L1d</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2">
+        <f>Lxw*Lwd</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2">
+        <f>C12*C13</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2">
+        <f>C14*C15</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2">
+        <f>C16*C17</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4</v>
+      </c>
+      <c r="D19" s="2">
+        <f>C18*C19</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2">
+        <v>156</v>
+      </c>
+      <c r="D21" s="2">
+        <f>SUM(D9:D19)</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="C24" s="2">
+        <f>SixPackNeuronCount*(IT +layerv4+layerv2+layerv1)</f>
+        <v>15600000</v>
+      </c>
+      <c r="E24" s="2">
+        <v>12</v>
+      </c>
+      <c r="F24" s="2">
+        <f>E24*neuroncount</f>
+        <v>187200000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2">
+        <f>neuroncount*neuronsignalratio</f>
+        <v>156000000</v>
+      </c>
+      <c r="E26" s="2">
+        <v>12</v>
+      </c>
+      <c r="F26" s="2">
+        <f>E26*signalcount</f>
+        <v>1872000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2">
+        <f>neuroncount*connectionrtio</f>
+        <v>780000000</v>
+      </c>
+      <c r="E28" s="2">
+        <v>20</v>
+      </c>
+      <c r="F28" s="2">
+        <f>E28*connectioncount</f>
+        <v>15600000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="2">
+        <f>SUM(F24:F28)</f>
+        <v>17659200000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803FE98C-BBBA-4537-B8D7-022247918625}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>6000</v>
+      </c>
+      <c r="B1">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" cm="1">
-        <f t="array" ref="C11">L1w*L1d+5*(Lxw*Lxd)</f>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <f>sixpack*(IT +layerv4+layerv4+layerv1)</f>
-        <v>89760</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="C1">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A1/$B$1</f>
+        <v>3000</v>
+      </c>
+      <c r="B3">
+        <f>A1+A3</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>A3/$B$1</f>
+        <v>1500</v>
+      </c>
+      <c r="B4">
+        <f>B3+A4</f>
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>A4/$B$1</f>
+        <v>750</v>
+      </c>
+      <c r="B5">
+        <f>B4+A5</f>
+        <v>11250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>A5/$B$1</f>
+        <v>375</v>
+      </c>
+      <c r="B6">
+        <f>B5+A6</f>
+        <v>11625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <f>A6/$B$1</f>
+        <v>187.5</v>
+      </c>
+      <c r="B7" s="3">
+        <f>B6+A7</f>
+        <v>11812.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
+        <f>C1-B7</f>
+        <v>187.5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
         <v>14</v>
-      </c>
-      <c r="C13" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1">
-        <f>neuroncount*neuronsignalratio</f>
-        <v>897600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1">
-        <f>neuroncount*connectionrtio</f>
-        <v>2692800</v>
       </c>
     </row>
   </sheetData>

--- a/docx/sizings.xlsx
+++ b/docx/sizings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\c++\TCNV4\docx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDEF6C29-9268-4AB8-BEC5-DC0360F15255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E920B25F-BD93-40B1-BF43-1DAC09C4B7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-135" windowWidth="29040" windowHeight="15720" xr2:uid="{CBF60A62-4AF1-487D-9D0D-182ED621CD00}"/>
   </bookViews>
@@ -17,8 +17,11 @@
     <sheet name="Aggregation" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="Colx">Sizing!$B$32</definedName>
+    <definedName name="Coly">Sizing!$C$32</definedName>
     <definedName name="connectioncount">Sizing!$C$28</definedName>
     <definedName name="connectionrtio">Sizing!$C$27</definedName>
+    <definedName name="connectionsize">Sizing!$E$28</definedName>
     <definedName name="IT">Sizing!$C$3</definedName>
     <definedName name="L1d">Sizing!$C$9</definedName>
     <definedName name="L1w">Sizing!$C$8</definedName>
@@ -28,9 +31,13 @@
     <definedName name="Lwd">Sizing!$C$11</definedName>
     <definedName name="Lxd">Sizing!$C$11</definedName>
     <definedName name="Lxw">Sizing!$C$10</definedName>
+    <definedName name="neuroncolumnsize">Sizing!$D$48</definedName>
     <definedName name="neuroncount">Sizing!$C$24</definedName>
     <definedName name="neuronsignalratio">Sizing!$C$25</definedName>
+    <definedName name="neuronsize">Sizing!$E$24</definedName>
+    <definedName name="patchsize">Sizing!$D$32</definedName>
     <definedName name="signalcount">Sizing!$C$26</definedName>
+    <definedName name="signalsize">Sizing!$E$26</definedName>
     <definedName name="sixpack">Sizing!$C$21</definedName>
     <definedName name="SixPackNeuronCount">Sizing!$D$21</definedName>
     <definedName name="soxpack">Sizing!$C$21</definedName>
@@ -56,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>TCN Sizing</t>
   </si>
@@ -88,9 +95,6 @@
     <t>connectioncount</t>
   </si>
   <si>
-    <t>neuronsignalration</t>
-  </si>
-  <si>
     <t>Unit size</t>
   </si>
   <si>
@@ -146,6 +150,66 @@
   </si>
   <si>
     <t>six_pack depth</t>
+  </si>
+  <si>
+    <t>neuronsignalratio</t>
+  </si>
+  <si>
+    <t>Layer driven</t>
+  </si>
+  <si>
+    <t>Column driven</t>
+  </si>
+  <si>
+    <t>L1_cols</t>
+  </si>
+  <si>
+    <t>L3_cols</t>
+  </si>
+  <si>
+    <t>L4_cols</t>
+  </si>
+  <si>
+    <t>L5_cols</t>
+  </si>
+  <si>
+    <t>L6_cols</t>
+  </si>
+  <si>
+    <t>L2_cols</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Patch</t>
+  </si>
+  <si>
+    <t>Six Pack Size</t>
+  </si>
+  <si>
+    <t>colneuroncount</t>
+  </si>
+  <si>
+    <t>colsignalcount</t>
+  </si>
+  <si>
+    <t>colsignalratio</t>
+  </si>
+  <si>
+    <t>colconnectionratio</t>
+  </si>
+  <si>
+    <t>colconnectioncount</t>
+  </si>
+  <si>
+    <t>Thalamus</t>
+  </si>
+  <si>
+    <t>General switch board</t>
   </si>
 </sst>
 </file>
@@ -540,17 +604,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C215058-7278-42BA-8F0D-12D4C5F6D6DC}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="17.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="22" style="2" customWidth="1"/>
@@ -562,18 +626,21 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -635,7 +702,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>1000</v>
@@ -655,7 +722,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2">
         <v>1000</v>
@@ -663,7 +730,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2">
         <v>30</v>
@@ -675,7 +742,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2">
         <v>1000</v>
@@ -683,7 +750,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2">
         <v>30</v>
@@ -695,7 +762,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2">
         <v>1000</v>
@@ -703,7 +770,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2">
         <v>30</v>
@@ -715,7 +782,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2">
         <v>1000</v>
@@ -723,7 +790,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2">
         <v>4</v>
@@ -735,7 +802,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2">
         <v>1000</v>
@@ -743,7 +810,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2">
         <v>4</v>
@@ -755,7 +822,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="2">
         <v>156</v>
@@ -783,7 +850,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C25" s="2">
         <v>10</v>
@@ -798,11 +865,11 @@
         <v>156000000</v>
       </c>
       <c r="E26" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F26" s="2">
         <f>E26*signalcount</f>
-        <v>1872000000</v>
+        <v>2496000000</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -832,7 +899,248 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F30" s="2">
         <f>SUM(F24:F28)</f>
-        <v>17659200000</v>
+        <v>18283200000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2">
+        <f>5*5</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <f>Colx * Coly</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2">
+        <f>B34*B35*patchsize</f>
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1">
+        <f>Colx * Coly</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="1">
+        <v>30</v>
+      </c>
+      <c r="D37" s="2">
+        <f>B36*B37*patchsize</f>
+        <v>36750</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="1">
+        <f>Colx * Coly</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="1">
+        <v>30</v>
+      </c>
+      <c r="D39" s="2">
+        <f>B38*B39*patchsize</f>
+        <v>36750</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="1">
+        <f>Colx * Coly</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="1">
+        <v>30</v>
+      </c>
+      <c r="D41" s="2">
+        <f>B40*B41*patchsize</f>
+        <v>36750</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="1">
+        <f>Colx * Coly</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4</v>
+      </c>
+      <c r="D43" s="2">
+        <f>B42*B43*patchsize</f>
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="1">
+        <f>Colx * Coly</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="1">
+        <v>4</v>
+      </c>
+      <c r="D45" s="2">
+        <f>B44*B45*patchsize</f>
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="2">
+        <f>SUM(D35:D45)</f>
+        <v>122500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="2">
+        <f>neuroncolumnsize*(IT +layerv4+layerv2+layerv1)</f>
+        <v>19110000</v>
+      </c>
+      <c r="E50" s="2">
+        <v>12</v>
+      </c>
+      <c r="F50" s="2">
+        <f>C50*E50</f>
+        <v>229320000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="2">
+        <f>C50*C51</f>
+        <v>191100000</v>
+      </c>
+      <c r="E52" s="2">
+        <v>16</v>
+      </c>
+      <c r="F52" s="2">
+        <f>C52*E52</f>
+        <v>3057600000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="2">
+        <f>C50*C53</f>
+        <v>955500000</v>
+      </c>
+      <c r="E54" s="2">
+        <v>20</v>
+      </c>
+      <c r="F54" s="2">
+        <f>C54*E54</f>
+        <v>19110000000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="2">
+        <f>SUM(F50:F54)</f>
+        <v>22396920000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -917,17 +1225,17 @@
         <v>187.5</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
